--- a/CashFlow/MRNA_cashflow.xlsx
+++ b/CashFlow/MRNA_cashflow.xlsx
@@ -346,19 +346,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11875000.0</v>
+        <v>69000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>8854000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>26237000.0</v>
+        <v>56543000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>21856000.0</v>
+        <v>42304000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-13032000.0</v>
+        <v>-1253000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>17724000.0</v>
